--- a/NformTester/NformTester/Keywordscripts/TST548_ShutdownActionPropertiesButtons.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST548_ShutdownActionPropertiesButtons.xlsx
@@ -1255,7 +1255,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3876,7 +3876,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3884,34 +3884,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3919,7 +3919,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4141,10 +4141,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -4209,7 +4209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4495,24 +4495,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>820</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
         <v>813</v>
@@ -5612,7 +5612,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" ht="15">
       <c r="C40" s="3">
         <v>39</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="3:14">
+    <row r="73" spans="3:14" ht="15">
       <c r="C73" s="3"/>
       <c r="D73" s="14"/>
       <c r="E73" s="3"/>
@@ -6470,7 +6470,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="3:14">
+    <row r="92" spans="3:14" ht="15">
       <c r="C92" s="3"/>
       <c r="D92" s="14"/>
       <c r="E92" s="3"/>
@@ -6722,7 +6722,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="3:14">
+    <row r="110" spans="3:14" ht="15">
       <c r="C110" s="3"/>
       <c r="D110" s="14"/>
       <c r="E110" s="3"/>
@@ -6974,7 +6974,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="3:14">
+    <row r="128" spans="3:14" ht="15">
       <c r="C128" s="3"/>
       <c r="D128" s="14"/>
       <c r="E128" s="5"/>
@@ -7044,7 +7044,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="15"/>
     </row>
-    <row r="133" spans="3:14" ht="16.5">
+    <row r="133" spans="3:14" ht="14.25">
       <c r="C133" s="3"/>
       <c r="D133" s="12"/>
       <c r="E133" s="5"/>
@@ -7086,7 +7086,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="3:14" ht="16.5">
+    <row r="137" spans="3:14" ht="14.25">
       <c r="D137" s="12"/>
       <c r="E137" s="5"/>
       <c r="F137" s="3"/>
@@ -7169,7 +7169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:85">
       <c r="A1" t="s">
@@ -11078,7 +11078,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1066">
       <c r="A1" t="s">
@@ -30138,10 +30138,10 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
